--- a/AmiAmi_sales.xlsx
+++ b/AmiAmi_sales.xlsx
@@ -139,40 +139,40 @@
     <t>https://img.amiami.com/images/product/main/243/FIGURE-172892.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-165912.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-136152.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-168740.jpg</t>
+    <t>https://img.amiami.com/images/product/main/241/FIGURE-165912.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/221/FIGURE-136152.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/242/FIGURE-168740.jpg</t>
   </si>
   <si>
     <t>https://img.amiami.com/images/product/main/243/FIGURE-172368.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-147770.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-162439.jpg</t>
+    <t>https://img.amiami.com/images/product/main/224/FIGURE-147770.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/234/FIGURE-162439.jpg</t>
   </si>
   <si>
     <t>https://img.amiami.com/images/product/main/243/FIGURE-175893.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-152803.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-151222.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-165695.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-165812.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-146070.jpg</t>
+    <t>https://img.amiami.com/images/product/main/231/FIGURE-152803.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/231/FIGURE-151222.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/241/FIGURE-165695.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/241/FIGURE-165812.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/224/FIGURE-146070.jpg</t>
   </si>
   <si>
     <t>https://img.amiami.com/images/product/main/243/FIGURE-174954.jpg</t>

--- a/AmiAmi_sales.xlsx
+++ b/AmiAmi_sales.xlsx
@@ -40,271 +40,271 @@
     <t>Discount %</t>
   </si>
   <si>
+    <t>Sale</t>
+  </si>
+  <si>
     <t>New</t>
   </si>
   <si>
-    <t>Sale</t>
+    <t>Spy x Family Anya &amp; Yor 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>"Chainsaw Man" Makima 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>Azur Lane Agir Light Equipment Ver. 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>[F:NEX x POPPRO] Hatsune Miku 2022 Chinese New Year Ver. 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>Evangelion Rei Ayanami &amp; Asuka Langley Shikinami Whisper of Flower Ver. 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>TV Anime "KonoSuba (Kono Subarashii Sekai ni Shukufuku wo!) 3" "Darkness Fairy Tale ver." 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>Date A Live Natsumi DX Ver. 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>TV Anime "NieR:Automata Ver1.1a" "2B (YoRHa No.2 Type B) -Exploration-" 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>KDcolle STEINS;GATE 0 Kurisu Makise With LED Light-Up Feature 1/7 Complete Figure</t>
   </si>
   <si>
     <t>HORROR BISHOUJO Sadako 1/7 Complete Figure</t>
   </si>
   <si>
+    <t>Fire Emblem Alear 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>DATE A LIVE IV Kurumi Tokisaki 1/7 Scale Figure</t>
+  </si>
+  <si>
+    <t>[Bonus] Honkai Impact 3rd Elysia Herrscher of Human: Ego Because of You Ver. 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>[Bonus] Honkai: Star Rail Fu Xuan 1/7 Complete Figure</t>
+  </si>
+  <si>
     <t>Azur Lane Shinano: Dreams of the Hazy Moon 1/7 Complete Figure</t>
   </si>
   <si>
-    <t>[F:NEX x POPPRO] Hatsune Miku 2022 Chinese New Year Ver. 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>Date A Live Natsumi DX Ver. 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>KDcolle STEINS;GATE 0 Kurisu Makise With LED Light-Up Feature 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>Spy x Family Anya &amp; Yor 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>[Bonus] Honkai Impact 3rd Elysia Herrscher of Human: Ego Because of You Ver. 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>DATE A LIVE IV Kurumi Tokisaki 1/7 Scale Figure</t>
-  </si>
-  <si>
-    <t>Evangelion Rei Ayanami &amp; Asuka Langley Shikinami Whisper of Flower Ver. 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>"Chainsaw Man" Makima 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>Fire Emblem Alear 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>[Bonus] Honkai: Star Rail Fu Xuan 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>Azur Lane Agir Light Equipment Ver. 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>TV Anime "KonoSuba (Kono Subarashii Sekai ni Shukufuku wo!) 3" "Darkness Fairy Tale ver." 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>TV Anime "NieR:Automata Ver1.1a" "2B (YoRHa No.2 Type B) -Exploration-" 1/7 Complete Figure</t>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-147770</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-151222</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-146070</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-136152</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-152803</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-174954</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-168740</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-172660</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-172368</t>
   </si>
   <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-172892</t>
   </si>
   <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-165695</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-175893</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-162439</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-165812</t>
+  </si>
+  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-165912</t>
   </si>
   <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-136152</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-168740</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-172368</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-147770</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-162439</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-175893</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-152803</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-151222</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-165695</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-165812</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-146070</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-174954</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-172660</t>
+    <t>https://img.amiami.com/images/product/main/224/FIGURE-147770.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/231/FIGURE-151222.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/224/FIGURE-146070.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/221/FIGURE-136152.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/231/FIGURE-152803.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/243/FIGURE-174954.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/242/FIGURE-168740.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/243/FIGURE-172660.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/243/FIGURE-172368.jpg</t>
   </si>
   <si>
     <t>https://img.amiami.com/images/product/main/243/FIGURE-172892.jpg</t>
   </si>
   <si>
+    <t>https://img.amiami.com/images/product/main/241/FIGURE-165695.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/243/FIGURE-175893.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/234/FIGURE-162439.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/241/FIGURE-165812.jpg</t>
+  </si>
+  <si>
     <t>https://img.amiami.com/images/product/main/241/FIGURE-165912.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/221/FIGURE-136152.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/242/FIGURE-168740.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-172368.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/224/FIGURE-147770.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/234/FIGURE-162439.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-175893.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/231/FIGURE-152803.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/231/FIGURE-151222.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/241/FIGURE-165695.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/241/FIGURE-165812.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/224/FIGURE-146070.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-174954.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-172660.jpg</t>
+    <t>10,000 JPY</t>
+  </si>
+  <si>
+    <t>19,980 JPY</t>
+  </si>
+  <si>
+    <t>18,300 JPY</t>
+  </si>
+  <si>
+    <t>27,566 JPY</t>
+  </si>
+  <si>
+    <t>35,420 JPY</t>
+  </si>
+  <si>
+    <t>21,500 JPY</t>
+  </si>
+  <si>
+    <t>24,120 JPY</t>
+  </si>
+  <si>
+    <t>23,560 JPY</t>
+  </si>
+  <si>
+    <t>29,200 JPY</t>
   </si>
   <si>
     <t>18,810 JPY</t>
   </si>
   <si>
+    <t>31,140 JPY</t>
+  </si>
+  <si>
+    <t>3,400 JPY</t>
+  </si>
+  <si>
+    <t>33,700 JPY</t>
+  </si>
+  <si>
+    <t>24,220 JPY</t>
+  </si>
+  <si>
     <t>34,350 JPY</t>
   </si>
   <si>
-    <t>27,566 JPY</t>
-  </si>
-  <si>
-    <t>24,120 JPY</t>
-  </si>
-  <si>
-    <t>29,200 JPY</t>
-  </si>
-  <si>
-    <t>10,000 JPY</t>
-  </si>
-  <si>
-    <t>33,700 JPY</t>
-  </si>
-  <si>
-    <t>3,400 JPY</t>
-  </si>
-  <si>
-    <t>35,420 JPY</t>
-  </si>
-  <si>
-    <t>19,980 JPY</t>
-  </si>
-  <si>
-    <t>31,140 JPY</t>
-  </si>
-  <si>
-    <t>24,220 JPY</t>
-  </si>
-  <si>
-    <t>18,300 JPY</t>
-  </si>
-  <si>
-    <t>21,500 JPY</t>
-  </si>
-  <si>
-    <t>23,560 JPY</t>
+    <t>25,000 JPY</t>
+  </si>
+  <si>
+    <t>28,820 JPY</t>
+  </si>
+  <si>
+    <t>26,180 JPY</t>
+  </si>
+  <si>
+    <t>39,380 JPY</t>
+  </si>
+  <si>
+    <t>50,600 JPY</t>
+  </si>
+  <si>
+    <t>25,300 JPY</t>
+  </si>
+  <si>
+    <t>28,380 JPY</t>
+  </si>
+  <si>
+    <t>27,720 JPY</t>
+  </si>
+  <si>
+    <t>32,450 JPY</t>
   </si>
   <si>
     <t>19,800 JPY</t>
   </si>
   <si>
+    <t>32,780 JPY</t>
+  </si>
+  <si>
+    <t>3,520 JPY</t>
+  </si>
+  <si>
+    <t>34,760 JPY</t>
+  </si>
+  <si>
+    <t>24,970 JPY</t>
+  </si>
+  <si>
     <t>34,700 JPY</t>
   </si>
   <si>
-    <t>39,380 JPY</t>
-  </si>
-  <si>
-    <t>28,380 JPY</t>
-  </si>
-  <si>
-    <t>32,450 JPY</t>
-  </si>
-  <si>
-    <t>25,000 JPY</t>
-  </si>
-  <si>
-    <t>34,760 JPY</t>
-  </si>
-  <si>
-    <t>3,520 JPY</t>
-  </si>
-  <si>
-    <t>50,600 JPY</t>
-  </si>
-  <si>
-    <t>28,820 JPY</t>
-  </si>
-  <si>
-    <t>32,780 JPY</t>
-  </si>
-  <si>
-    <t>24,970 JPY</t>
-  </si>
-  <si>
-    <t>26,180 JPY</t>
-  </si>
-  <si>
-    <t>25,300 JPY</t>
-  </si>
-  <si>
-    <t>27,720 JPY</t>
+    <t>60.0%</t>
+  </si>
+  <si>
+    <t>30.67%</t>
+  </si>
+  <si>
+    <t>30.1%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>15.02%</t>
+  </si>
+  <si>
+    <t>15.01%</t>
+  </si>
+  <si>
+    <t>10.02%</t>
   </si>
   <si>
     <t>5.0%</t>
   </si>
   <si>
+    <t>3.41%</t>
+  </si>
+  <si>
+    <t>3.05%</t>
+  </si>
+  <si>
+    <t>3.0%</t>
+  </si>
+  <si>
     <t>1.01%</t>
-  </si>
-  <si>
-    <t>30.0%</t>
-  </si>
-  <si>
-    <t>15.01%</t>
-  </si>
-  <si>
-    <t>10.02%</t>
-  </si>
-  <si>
-    <t>60.0%</t>
-  </si>
-  <si>
-    <t>3.05%</t>
-  </si>
-  <si>
-    <t>3.41%</t>
-  </si>
-  <si>
-    <t>30.67%</t>
-  </si>
-  <si>
-    <t>3.0%</t>
-  </si>
-  <si>
-    <t>30.1%</t>
-  </si>
-  <si>
-    <t>15.02%</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -828,7 +828,7 @@
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -851,12 +851,12 @@
         <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -874,12 +874,12 @@
         <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -897,7 +897,7 @@
         <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -920,7 +920,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -943,12 +943,12 @@
         <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -966,12 +966,12 @@
         <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -989,7 +989,7 @@
         <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1012,12 +1012,12 @@
         <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -1035,12 +1035,12 @@
         <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -1058,7 +1058,7 @@
         <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/AmiAmi_sales.xlsx
+++ b/AmiAmi_sales.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>Condition</t>
   </si>
@@ -52,6 +52,9 @@
     <t>[Exclusive Sale] [Bonus] Pilot Oneesan 1/7 Complete Figure</t>
   </si>
   <si>
+    <t>[Exclusive Sale] Character Vocal Series 01 Hatsune Miku Virtual Popstar Ver. 1/7 Figure</t>
+  </si>
+  <si>
     <t>PRISMA WING Fate/kaleid liner Prisma Illya Illyasviel Von Einzbern 1/7 Figure</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>HORROR BISHOUJO Sadako 1/7 Complete Figure</t>
   </si>
   <si>
+    <t>MY LITTLE PONY BISHOUJO Fluttershy 1/7 Complete Figure</t>
+  </si>
+  <si>
     <t>[Bonus] Honkai Impact 3rd Elysia Herrscher of Human: Ego Because of You Ver. 1/7 Complete Figure</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-140637</t>
   </si>
   <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-141385</t>
+  </si>
+  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-138085</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-172892</t>
   </si>
   <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-174605</t>
+  </si>
+  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-162439</t>
   </si>
   <si>
@@ -142,6 +154,9 @@
     <t>https://img.amiami.com/images/product/main/222/FIGURE-140637.jpg</t>
   </si>
   <si>
+    <t>https://img.amiami.com/images/product/main/222/FIGURE-141385.jpg</t>
+  </si>
+  <si>
     <t>https://img.amiami.com/images/product/main/221/FIGURE-138085.jpg</t>
   </si>
   <si>
@@ -160,6 +175,9 @@
     <t>https://img.amiami.com/images/product/main/243/FIGURE-172892.jpg</t>
   </si>
   <si>
+    <t>https://img.amiami.com/images/product/main/243/FIGURE-174605.jpg</t>
+  </si>
+  <si>
     <t>https://img.amiami.com/images/product/main/234/FIGURE-162439.jpg</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t>9,372 JPY</t>
   </si>
   <si>
+    <t>25,980 JPY</t>
+  </si>
+  <si>
     <t>15,980 JPY</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t>18,810 JPY</t>
   </si>
   <si>
+    <t>16,720 JPY</t>
+  </si>
+  <si>
     <t>33,700 JPY</t>
   </si>
   <si>
@@ -232,6 +256,9 @@
     <t>23,430 JPY</t>
   </si>
   <si>
+    <t>45,000 JPY</t>
+  </si>
+  <si>
     <t>25,300 JPY</t>
   </si>
   <si>
@@ -250,6 +277,9 @@
     <t>19,800 JPY</t>
   </si>
   <si>
+    <t>17,600 JPY</t>
+  </si>
+  <si>
     <t>34,760 JPY</t>
   </si>
   <si>
@@ -269,6 +299,9 @@
   </si>
   <si>
     <t>60.0%</t>
+  </si>
+  <si>
+    <t>42.27%</t>
   </si>
   <si>
     <t>36.84%</t>
@@ -675,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -744,19 +777,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -767,19 +800,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -790,19 +823,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -813,42 +846,42 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -859,19 +892,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -882,19 +915,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -905,19 +938,19 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -928,19 +961,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -951,19 +984,19 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -974,19 +1007,19 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -997,19 +1030,19 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1020,19 +1053,19 @@
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1043,23 +1076,69 @@
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16"/>
+  <autoFilter ref="A1:G18"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -1091,6 +1170,10 @@
     <hyperlink ref="D15" r:id="rId28"/>
     <hyperlink ref="C16" r:id="rId29"/>
     <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="C17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="C18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AmiAmi_sales.xlsx
+++ b/AmiAmi_sales.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Condition</t>
   </si>
@@ -64,18 +64,15 @@
     <t>Hatsune Miku Techno-Magic ver. 1/7 Scale Figure</t>
   </si>
   <si>
-    <t>[F:NEX x POPPRO] Hatsune Miku 2022 Chinese New Year Ver. 1/7 Complete Figure</t>
-  </si>
-  <si>
-    <t>Ys VIII -Lacrimosa of DANA- Dana Iclucia 1/7 Complete Figure</t>
+    <t>Super Sonico 10th Merry Christmas! 1/7 Complete Figure</t>
+  </si>
+  <si>
+    <t>To Love-Ru Darkness Lala Satalin Deviluke Maid Ver. 1/7 Complete Figure</t>
   </si>
   <si>
     <t>HORROR BISHOUJO Sadako 1/7 Complete Figure</t>
   </si>
   <si>
-    <t>MY LITTLE PONY BISHOUJO Fluttershy 1/7 Complete Figure</t>
-  </si>
-  <si>
     <t>[Bonus] Honkai Impact 3rd Elysia Herrscher of Human: Ego Because of You Ver. 1/7 Complete Figure</t>
   </si>
   <si>
@@ -115,18 +112,15 @@
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-156369</t>
   </si>
   <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-136152</t>
-  </si>
-  <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-174602</t>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-149078</t>
+  </si>
+  <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-172754</t>
   </si>
   <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-172892</t>
   </si>
   <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-174605</t>
-  </si>
-  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-162439</t>
   </si>
   <si>
@@ -166,18 +160,15 @@
     <t>https://img.amiami.com/images/product/main/232/FIGURE-156369.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/221/FIGURE-136152.jpg</t>
-  </si>
-  <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-174602.jpg</t>
+    <t>https://img.amiami.com/images/product/main/224/FIGURE-149078.jpg</t>
+  </si>
+  <si>
+    <t>https://img.amiami.com/images/product/main/243/FIGURE-172754.jpg</t>
   </si>
   <si>
     <t>https://img.amiami.com/images/product/main/243/FIGURE-172892.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-174605.jpg</t>
-  </si>
-  <si>
     <t>https://img.amiami.com/images/product/main/234/FIGURE-162439.jpg</t>
   </si>
   <si>
@@ -217,18 +208,15 @@
     <t>22,940 JPY</t>
   </si>
   <si>
-    <t>35,400 JPY</t>
-  </si>
-  <si>
-    <t>28,210 JPY</t>
+    <t>16,555 JPY</t>
+  </si>
+  <si>
+    <t>16,510 JPY</t>
   </si>
   <si>
     <t>18,810 JPY</t>
   </si>
   <si>
-    <t>16,720 JPY</t>
-  </si>
-  <si>
     <t>33,700 JPY</t>
   </si>
   <si>
@@ -268,30 +256,30 @@
     <t>32,780 JPY</t>
   </si>
   <si>
-    <t>39,380 JPY</t>
+    <t>23,650 JPY</t>
+  </si>
+  <si>
+    <t>17,380 JPY</t>
+  </si>
+  <si>
+    <t>19,800 JPY</t>
+  </si>
+  <si>
+    <t>34,760 JPY</t>
+  </si>
+  <si>
+    <t>24,200 JPY</t>
+  </si>
+  <si>
+    <t>42,460 JPY</t>
+  </si>
+  <si>
+    <t>26,950 JPY</t>
   </si>
   <si>
     <t>29,700 JPY</t>
   </si>
   <si>
-    <t>19,800 JPY</t>
-  </si>
-  <si>
-    <t>17,600 JPY</t>
-  </si>
-  <si>
-    <t>34,760 JPY</t>
-  </si>
-  <si>
-    <t>24,200 JPY</t>
-  </si>
-  <si>
-    <t>42,460 JPY</t>
-  </si>
-  <si>
-    <t>26,950 JPY</t>
-  </si>
-  <si>
     <t>27,800 JPY</t>
   </si>
   <si>
@@ -313,10 +301,10 @@
     <t>30.02%</t>
   </si>
   <si>
-    <t>10.11%</t>
-  </si>
-  <si>
-    <t>5.02%</t>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>5.01%</t>
   </si>
   <si>
     <t>5.0%</t>
@@ -708,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,19 +742,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -777,19 +765,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -800,19 +788,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -823,19 +811,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -846,19 +834,19 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -869,42 +857,42 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -915,19 +903,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -938,19 +926,19 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -961,19 +949,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -984,19 +972,19 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1007,19 +995,19 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1030,19 +1018,19 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1053,19 +1041,19 @@
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1076,19 +1064,19 @@
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1099,46 +1087,23 @@
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G18"/>
+  <autoFilter ref="A1:G17"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -1172,8 +1137,6 @@
     <hyperlink ref="D16" r:id="rId30"/>
     <hyperlink ref="C17" r:id="rId31"/>
     <hyperlink ref="D17" r:id="rId32"/>
-    <hyperlink ref="C18" r:id="rId33"/>
-    <hyperlink ref="D18" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AmiAmi_sales.xlsx
+++ b/AmiAmi_sales.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Condition</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Xenoblade Chronicles 3 Mio 1/7 Complete Figure</t>
   </si>
   <si>
+    <t>[Exclusive Sale] Blue Archive Hoshino (Swimsuit) 1/7 Complete Figure</t>
+  </si>
+  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-147770</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-170041</t>
   </si>
   <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-171326</t>
+  </si>
+  <si>
     <t>https://img.amiami.com/images/product/main/224/FIGURE-147770.jpg</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t>https://img.amiami.com/images/product/main/242/FIGURE-170041.jpg</t>
   </si>
   <si>
+    <t>https://img.amiami.com/images/product/main/242/FIGURE-171326.jpg</t>
+  </si>
+  <si>
     <t>10,000 JPY</t>
   </si>
   <si>
@@ -226,6 +235,9 @@
     <t>15,400 JPY</t>
   </si>
   <si>
+    <t>28,512 JPY</t>
+  </si>
+  <si>
     <t>25,000 JPY</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t>15,800 JPY</t>
   </si>
   <si>
+    <t>28,800 JPY</t>
+  </si>
+  <si>
     <t>60.0%</t>
   </si>
   <si>
@@ -305,6 +320,9 @@
   </si>
   <si>
     <t>2.53%</t>
+  </si>
+  <si>
+    <t>1.0%</t>
   </si>
 </sst>
 </file>
@@ -678,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,19 +742,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -747,19 +765,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -770,19 +788,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -793,19 +811,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -816,19 +834,19 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -839,19 +857,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -862,19 +880,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -885,19 +903,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -908,19 +926,19 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -931,19 +949,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -954,19 +972,19 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -977,19 +995,19 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1000,19 +1018,19 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1023,19 +1041,19 @@
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1046,23 +1064,46 @@
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16"/>
+  <autoFilter ref="A1:G17"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -1094,6 +1135,8 @@
     <hyperlink ref="D15" r:id="rId28"/>
     <hyperlink ref="C16" r:id="rId29"/>
     <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="C17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AmiAmi_sales.xlsx
+++ b/AmiAmi_sales.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>Condition</t>
   </si>
@@ -52,31 +52,31 @@
     <t>Overlord Albedo Season4 so-bin ver. 1/7 Complete Figure</t>
   </si>
   <si>
-    <t>Re:ZERO -Starting Life in Another World- Echidna Wedding Ver. 1/7 Complete Figure</t>
-  </si>
-  <si>
     <t>[Exclusive Sale] Character Vocal Series 01 Hatsune Miku Virtual Popstar Ver. 1/7 Figure</t>
   </si>
   <si>
-    <t>"Chainsaw Man" Makima 1/7 Complete Figure</t>
-  </si>
-  <si>
     <t>Hatsune Miku Techno-Magic ver. 1/7 Scale Figure</t>
   </si>
   <si>
     <t>Azur Lane Bremerton Hot Training 1/7 Complete Figure</t>
   </si>
   <si>
+    <t>[Bonus] Azur Lane New Jersey Snow-White Ceremony Ver. 1/7 Complete Figure</t>
+  </si>
+  <si>
     <t>MAPPA x Design COCO Jujutsu Kaisen Shibuya Incident Satoru Gojo 1/7 Complete Figure</t>
   </si>
   <si>
+    <t>"Fate/Grand Order" Assassin/Kama (Final Ascension) 1/7 Complete Figure</t>
+  </si>
+  <si>
     <t>"Ranma 1/2" Original Manga Shampoo 1/7 Complete Figure</t>
   </si>
   <si>
     <t>Evangelion: 3.0+1.0 Thrice Upon a Time Asuka Langley Shikinami 1/7 Complete Figure</t>
   </si>
   <si>
-    <t>"Fate/Grand Order" Assassin/Kama (Final Ascension) 1/7 Complete Figure</t>
+    <t>Blue Archive Asuma Toki (Bunny Girl) 1/7 Complete Figure</t>
   </si>
   <si>
     <t>Goddess of Victory: Nikke Volume 1/7 Complete Figure</t>
@@ -103,31 +103,31 @@
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-152168</t>
   </si>
   <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-144790</t>
-  </si>
-  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-141385</t>
   </si>
   <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-151222</t>
-  </si>
-  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-156369</t>
   </si>
   <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-138681</t>
   </si>
   <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-156662</t>
+  </si>
+  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-163846</t>
   </si>
   <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-173766</t>
+  </si>
+  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-179523</t>
   </si>
   <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-166626</t>
   </si>
   <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-173766</t>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-170858</t>
   </si>
   <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-169230</t>
@@ -154,31 +154,31 @@
     <t>https://img.amiami.com/images/product/main/231/FIGURE-152168.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/223/FIGURE-144790.jpg</t>
-  </si>
-  <si>
     <t>https://img.amiami.com/images/product/main/222/FIGURE-141385.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/231/FIGURE-151222.jpg</t>
-  </si>
-  <si>
     <t>https://img.amiami.com/images/product/main/232/FIGURE-156369.jpg</t>
   </si>
   <si>
     <t>https://img.amiami.com/images/product/main/222/FIGURE-138681.jpg</t>
   </si>
   <si>
+    <t>https://img.amiami.com/images/product/main/233/FIGURE-156662.jpg</t>
+  </si>
+  <si>
     <t>https://img.amiami.com/images/product/main/234/FIGURE-163846.jpg</t>
   </si>
   <si>
+    <t>https://img.amiami.com/images/product/main/243/FIGURE-173766.jpg</t>
+  </si>
+  <si>
     <t>https://img.amiami.com/images/product/main/244/FIGURE-179523.jpg</t>
   </si>
   <si>
     <t>https://img.amiami.com/images/product/main/241/FIGURE-166626.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/243/FIGURE-173766.jpg</t>
+    <t>https://img.amiami.com/images/product/main/242/FIGURE-170858.jpg</t>
   </si>
   <si>
     <t>https://img.amiami.com/images/product/main/242/FIGURE-169230.jpg</t>
@@ -205,31 +205,31 @@
     <t>18,500 JPY</t>
   </si>
   <si>
-    <t>11,800 JPY</t>
-  </si>
-  <si>
     <t>25,980 JPY</t>
   </si>
   <si>
-    <t>19,980 JPY</t>
-  </si>
-  <si>
     <t>22,940 JPY</t>
   </si>
   <si>
     <t>13,860 JPY</t>
   </si>
   <si>
+    <t>32,000 JPY</t>
+  </si>
+  <si>
     <t>42,240 JPY</t>
   </si>
   <si>
+    <t>19,635 JPY</t>
+  </si>
+  <si>
     <t>22,440 JPY</t>
   </si>
   <si>
     <t>16,830 JPY</t>
   </si>
   <si>
-    <t>21,250 JPY</t>
+    <t>18,800 JPY</t>
   </si>
   <si>
     <t>30,400 JPY</t>
@@ -256,33 +256,27 @@
     <t>43,890 JPY</t>
   </si>
   <si>
-    <t>22,800 JPY</t>
-  </si>
-  <si>
     <t>45,000 JPY</t>
   </si>
   <si>
-    <t>28,820 JPY</t>
-  </si>
-  <si>
     <t>32,780 JPY</t>
   </si>
   <si>
     <t>19,800 JPY</t>
   </si>
   <si>
+    <t>43,780 JPY</t>
+  </si>
+  <si>
     <t>52,800 JPY</t>
   </si>
   <si>
+    <t>23,100 JPY</t>
+  </si>
+  <si>
     <t>26,400 JPY</t>
   </si>
   <si>
-    <t>23,100 JPY</t>
-  </si>
-  <si>
-    <t>32,000 JPY</t>
-  </si>
-  <si>
     <t>23,980 JPY</t>
   </si>
   <si>
@@ -301,28 +295,25 @@
     <t>57.85%</t>
   </si>
   <si>
-    <t>48.25%</t>
-  </si>
-  <si>
     <t>42.27%</t>
   </si>
   <si>
-    <t>30.67%</t>
-  </si>
-  <si>
     <t>30.02%</t>
   </si>
   <si>
     <t>30.0%</t>
   </si>
   <si>
+    <t>26.91%</t>
+  </si>
+  <si>
     <t>20.0%</t>
   </si>
   <si>
     <t>15.0%</t>
   </si>
   <si>
-    <t>8.01%</t>
+    <t>5.05%</t>
   </si>
   <si>
     <t>5.0%</t>
@@ -769,7 +760,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -792,7 +783,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -815,7 +806,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -838,7 +829,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -861,7 +852,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -884,7 +875,7 @@
         <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -907,12 +898,12 @@
         <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -930,7 +921,7 @@
         <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -953,7 +944,7 @@
         <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -973,10 +964,10 @@
         <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -996,10 +987,10 @@
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1019,10 +1010,10 @@
         <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1042,10 +1033,10 @@
         <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1065,10 +1056,10 @@
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1088,10 +1079,10 @@
         <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1111,10 +1102,10 @@
         <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1134,10 +1125,10 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/AmiAmi_sales.xlsx
+++ b/AmiAmi_sales.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t>Condition</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Sale</t>
   </si>
   <si>
-    <t>Limited</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -70,12 +67,12 @@
     <t>[Bonus] Azur Lane New Jersey Snow-White Ceremony Ver. 1/7 Complete Figure</t>
   </si>
   <si>
-    <t>[AmiAmi Exclusive Bonus] PRISMA WING TV Anime "Kono Subarashii Sekai ni Bakuen wo!" Megumin 1/7 Figure</t>
-  </si>
-  <si>
     <t>[Bonus] SSR FIGURE Kanna Shinomiya: Jiangshi Ver. 1/7 Scale Figure</t>
   </si>
   <si>
+    <t>[Bonus] Dancer Rufus Illustration by Yatsumi Suzuame 1/7 Complete Figure</t>
+  </si>
+  <si>
     <t>Fire Emblem Dimitri 1/7 Complete Figure</t>
   </si>
   <si>
@@ -112,12 +109,12 @@
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-156662</t>
   </si>
   <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-168435</t>
-  </si>
-  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-181991</t>
   </si>
   <si>
+    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-156912</t>
+  </si>
+  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-173530</t>
   </si>
   <si>
@@ -154,12 +151,12 @@
     <t>https://img.amiami.com/images/product/main/233/FIGURE-156662.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/242/FIGURE-168435.jpg</t>
-  </si>
-  <si>
     <t>https://img.amiami.com/images/product/main/251/FIGURE-181991.jpg</t>
   </si>
   <si>
+    <t>https://img.amiami.com/images/product/main/233/FIGURE-156912.jpg</t>
+  </si>
+  <si>
     <t>https://img.amiami.com/images/product/main/243/FIGURE-173530.jpg</t>
   </si>
   <si>
@@ -196,12 +193,12 @@
     <t>32,000 JPY</t>
   </si>
   <si>
-    <t>37,520 JPY</t>
-  </si>
-  <si>
     <t>20,460 JPY</t>
   </si>
   <si>
+    <t>22,990 JPY</t>
+  </si>
+  <si>
     <t>31,140 JPY</t>
   </si>
   <si>
@@ -238,12 +235,12 @@
     <t>43,780 JPY</t>
   </si>
   <si>
-    <t>41,690 JPY</t>
-  </si>
-  <si>
     <t>22,000 JPY</t>
   </si>
   <si>
+    <t>24,200 JPY</t>
+  </si>
+  <si>
     <t>17,600 JPY</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
   </si>
   <si>
     <t>26.91%</t>
-  </si>
-  <si>
-    <t>10.0%</t>
   </si>
   <si>
     <t>7.0%</t>
@@ -706,22 +700,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -729,22 +723,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -752,22 +746,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -775,22 +769,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -798,22 +792,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -821,22 +815,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -844,22 +838,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -867,160 +861,160 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/AmiAmi_sales.xlsx
+++ b/AmiAmi_sales.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$12</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Condition</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Goddess of Victory: Nikke Rapi: Classic Vacation 1/7 Complete Figure</t>
   </si>
   <si>
-    <t>[Exclusive Sale] Azur Lane Asanagi Lulled by Rough Seas 1/7 Complete Figure</t>
-  </si>
-  <si>
     <t>Vanilla Dreamy Cute China Ver. 1/7 Scale Figure</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-172222</t>
   </si>
   <si>
-    <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-182753</t>
-  </si>
-  <si>
     <t>https://www.amiami.com/eng/detail/?gcode=FIGURE-179876</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>https://img.amiami.com/images/product/main/242/FIGURE-172222.jpg</t>
   </si>
   <si>
-    <t>https://img.amiami.com/images/product/main/251/FIGURE-182753.jpg</t>
-  </si>
-  <si>
     <t>https://img.amiami.com/images/product/main/244/FIGURE-179876.jpg</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>15,120 JPY</t>
   </si>
   <si>
-    <t>24,656 JPY</t>
-  </si>
-  <si>
     <t>24,030 JPY</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>16,800 JPY</t>
   </si>
   <si>
-    <t>26,800 JPY</t>
-  </si>
-  <si>
     <t>25,300 JPY</t>
   </si>
   <si>
@@ -245,9 +230,6 @@
   </si>
   <si>
     <t>10.0%</t>
-  </si>
-  <si>
-    <t>8.0%</t>
   </si>
   <si>
     <t>5.02%</t>
@@ -633,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,19 +661,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -702,19 +684,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -725,19 +707,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -748,19 +730,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -771,19 +753,19 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -794,19 +776,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -817,19 +799,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -840,19 +822,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -863,19 +845,19 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -886,19 +868,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -909,46 +891,23 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G13"/>
+  <autoFilter ref="A1:G12"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -972,8 +931,6 @@
     <hyperlink ref="D11" r:id="rId20"/>
     <hyperlink ref="C12" r:id="rId21"/>
     <hyperlink ref="D12" r:id="rId22"/>
-    <hyperlink ref="C13" r:id="rId23"/>
-    <hyperlink ref="D13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
